--- a/Documentation/Technical/Technical Specifications/High Level Design Specification/Database/db_draft.xlsx
+++ b/Documentation/Technical/Technical Specifications/High Level Design Specification/Database/db_draft.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Cylinder</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>Contact</t>
-  </si>
-  <si>
-    <t>Role_Right</t>
-  </si>
-  <si>
-    <t>AccessRightId</t>
   </si>
   <si>
     <t>Customer</t>
@@ -2811,410 +2805,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>243447</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Freeform 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5615547" y="2409825"/>
-          <a:ext cx="347103" cy="400050"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 347103 w 347103"/>
-            <a:gd name="connsiteY0" fmla="*/ 400050 h 400050"/>
-            <a:gd name="connsiteX1" fmla="*/ 251853 w 347103"/>
-            <a:gd name="connsiteY1" fmla="*/ 390525 h 400050"/>
-            <a:gd name="connsiteX2" fmla="*/ 185178 w 347103"/>
-            <a:gd name="connsiteY2" fmla="*/ 381000 h 400050"/>
-            <a:gd name="connsiteX3" fmla="*/ 23253 w 347103"/>
-            <a:gd name="connsiteY3" fmla="*/ 371475 h 400050"/>
-            <a:gd name="connsiteX4" fmla="*/ 23253 w 347103"/>
-            <a:gd name="connsiteY4" fmla="*/ 95250 h 400050"/>
-            <a:gd name="connsiteX5" fmla="*/ 32778 w 347103"/>
-            <a:gd name="connsiteY5" fmla="*/ 66675 h 400050"/>
-            <a:gd name="connsiteX6" fmla="*/ 32778 w 347103"/>
-            <a:gd name="connsiteY6" fmla="*/ 0 h 400050"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="347103" h="400050">
-              <a:moveTo>
-                <a:pt x="347103" y="400050"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="251853" y="390525"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="229556" y="387902"/>
-                <a:pt x="207551" y="382864"/>
-                <a:pt x="185178" y="381000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="131296" y="376510"/>
-                <a:pt x="77228" y="374650"/>
-                <a:pt x="23253" y="371475"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="0" y="255209"/>
-                <a:pt x="7265" y="311082"/>
-                <a:pt x="23253" y="95250"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="23995" y="85237"/>
-                <a:pt x="31779" y="76665"/>
-                <a:pt x="32778" y="66675"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="34989" y="44560"/>
-                <a:pt x="32778" y="22225"/>
-                <a:pt x="32778" y="0"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-SG" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>65671</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Freeform 37"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5305425" y="2770771"/>
-          <a:ext cx="666750" cy="277229"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 666750 w 666750"/>
-            <a:gd name="connsiteY0" fmla="*/ 277229 h 277229"/>
-            <a:gd name="connsiteX1" fmla="*/ 609600 w 666750"/>
-            <a:gd name="connsiteY1" fmla="*/ 258179 h 277229"/>
-            <a:gd name="connsiteX2" fmla="*/ 571500 w 666750"/>
-            <a:gd name="connsiteY2" fmla="*/ 248654 h 277229"/>
-            <a:gd name="connsiteX3" fmla="*/ 514350 w 666750"/>
-            <a:gd name="connsiteY3" fmla="*/ 229604 h 277229"/>
-            <a:gd name="connsiteX4" fmla="*/ 476250 w 666750"/>
-            <a:gd name="connsiteY4" fmla="*/ 220079 h 277229"/>
-            <a:gd name="connsiteX5" fmla="*/ 447675 w 666750"/>
-            <a:gd name="connsiteY5" fmla="*/ 210554 h 277229"/>
-            <a:gd name="connsiteX6" fmla="*/ 361950 w 666750"/>
-            <a:gd name="connsiteY6" fmla="*/ 172454 h 277229"/>
-            <a:gd name="connsiteX7" fmla="*/ 295275 w 666750"/>
-            <a:gd name="connsiteY7" fmla="*/ 134354 h 277229"/>
-            <a:gd name="connsiteX8" fmla="*/ 228600 w 666750"/>
-            <a:gd name="connsiteY8" fmla="*/ 115304 h 277229"/>
-            <a:gd name="connsiteX9" fmla="*/ 171450 w 666750"/>
-            <a:gd name="connsiteY9" fmla="*/ 96254 h 277229"/>
-            <a:gd name="connsiteX10" fmla="*/ 114300 w 666750"/>
-            <a:gd name="connsiteY10" fmla="*/ 77204 h 277229"/>
-            <a:gd name="connsiteX11" fmla="*/ 28575 w 666750"/>
-            <a:gd name="connsiteY11" fmla="*/ 58154 h 277229"/>
-            <a:gd name="connsiteX12" fmla="*/ 57150 w 666750"/>
-            <a:gd name="connsiteY12" fmla="*/ 153404 h 277229"/>
-            <a:gd name="connsiteX13" fmla="*/ 66675 w 666750"/>
-            <a:gd name="connsiteY13" fmla="*/ 181979 h 277229"/>
-            <a:gd name="connsiteX14" fmla="*/ 38100 w 666750"/>
-            <a:gd name="connsiteY14" fmla="*/ 162929 h 277229"/>
-            <a:gd name="connsiteX15" fmla="*/ 19050 w 666750"/>
-            <a:gd name="connsiteY15" fmla="*/ 134354 h 277229"/>
-            <a:gd name="connsiteX16" fmla="*/ 9525 w 666750"/>
-            <a:gd name="connsiteY16" fmla="*/ 96254 h 277229"/>
-            <a:gd name="connsiteX17" fmla="*/ 0 w 666750"/>
-            <a:gd name="connsiteY17" fmla="*/ 67679 h 277229"/>
-            <a:gd name="connsiteX18" fmla="*/ 9525 w 666750"/>
-            <a:gd name="connsiteY18" fmla="*/ 39104 h 277229"/>
-            <a:gd name="connsiteX19" fmla="*/ 66675 w 666750"/>
-            <a:gd name="connsiteY19" fmla="*/ 20054 h 277229"/>
-            <a:gd name="connsiteX20" fmla="*/ 95250 w 666750"/>
-            <a:gd name="connsiteY20" fmla="*/ 10529 h 277229"/>
-            <a:gd name="connsiteX21" fmla="*/ 133350 w 666750"/>
-            <a:gd name="connsiteY21" fmla="*/ 1004 h 277229"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX7" y="connsiteY7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX8" y="connsiteY8"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX9" y="connsiteY9"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX10" y="connsiteY10"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX11" y="connsiteY11"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX12" y="connsiteY12"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX13" y="connsiteY13"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX14" y="connsiteY14"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX15" y="connsiteY15"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX16" y="connsiteY16"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX17" y="connsiteY17"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX18" y="connsiteY18"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX19" y="connsiteY19"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX20" y="connsiteY20"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX21" y="connsiteY21"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="666750" h="277229">
-              <a:moveTo>
-                <a:pt x="666750" y="277229"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="647700" y="270879"/>
-                <a:pt x="629081" y="263049"/>
-                <a:pt x="609600" y="258179"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="596900" y="255004"/>
-                <a:pt x="584039" y="252416"/>
-                <a:pt x="571500" y="248654"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="552266" y="242884"/>
-                <a:pt x="533400" y="235954"/>
-                <a:pt x="514350" y="229604"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="501931" y="225464"/>
-                <a:pt x="488837" y="223675"/>
-                <a:pt x="476250" y="220079"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="466596" y="217321"/>
-                <a:pt x="457200" y="213729"/>
-                <a:pt x="447675" y="210554"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="402392" y="180365"/>
-                <a:pt x="429960" y="195124"/>
-                <a:pt x="361950" y="172454"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="311853" y="155755"/>
-                <a:pt x="337081" y="155257"/>
-                <a:pt x="295275" y="134354"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="279270" y="126351"/>
-                <a:pt x="243859" y="119882"/>
-                <a:pt x="228600" y="115304"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="209366" y="109534"/>
-                <a:pt x="190500" y="102604"/>
-                <a:pt x="171450" y="96254"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="114300" y="77204"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="94123" y="70478"/>
-                <a:pt x="47448" y="61929"/>
-                <a:pt x="28575" y="58154"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="73846" y="193967"/>
-                <a:pt x="28360" y="52637"/>
-                <a:pt x="57150" y="153404"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="59908" y="163058"/>
-                <a:pt x="75655" y="177489"/>
-                <a:pt x="66675" y="181979"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="56436" y="187099"/>
-                <a:pt x="47625" y="169279"/>
-                <a:pt x="38100" y="162929"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="31750" y="153404"/>
-                <a:pt x="23559" y="144876"/>
-                <a:pt x="19050" y="134354"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="13893" y="122322"/>
-                <a:pt x="13121" y="108841"/>
-                <a:pt x="9525" y="96254"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6767" y="86600"/>
-                <a:pt x="3175" y="77204"/>
-                <a:pt x="0" y="67679"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="3175" y="58154"/>
-                <a:pt x="1355" y="44940"/>
-                <a:pt x="9525" y="39104"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="25865" y="27432"/>
-                <a:pt x="47625" y="26404"/>
-                <a:pt x="66675" y="20054"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="95250" y="10529"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="126837" y="0"/>
-                <a:pt x="113785" y="1004"/>
-                <a:pt x="133350" y="1004"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-SG" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3685,204 +3275,48 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>754817</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>237355</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>541423</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Freeform 42"/>
+        <xdr:cNvPr id="13" name="Freeform 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="754817" y="2800350"/>
-          <a:ext cx="6654131" cy="2124075"/>
+          <a:off x="4075930" y="2828925"/>
+          <a:ext cx="372245" cy="171450"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 16708 w 6654131"/>
-            <a:gd name="connsiteY0" fmla="*/ 228600 h 2124075"/>
-            <a:gd name="connsiteX1" fmla="*/ 73858 w 6654131"/>
-            <a:gd name="connsiteY1" fmla="*/ 257175 h 2124075"/>
-            <a:gd name="connsiteX2" fmla="*/ 102433 w 6654131"/>
-            <a:gd name="connsiteY2" fmla="*/ 266700 h 2124075"/>
-            <a:gd name="connsiteX3" fmla="*/ 159583 w 6654131"/>
-            <a:gd name="connsiteY3" fmla="*/ 304800 h 2124075"/>
-            <a:gd name="connsiteX4" fmla="*/ 207208 w 6654131"/>
-            <a:gd name="connsiteY4" fmla="*/ 361950 h 2124075"/>
-            <a:gd name="connsiteX5" fmla="*/ 235783 w 6654131"/>
-            <a:gd name="connsiteY5" fmla="*/ 381000 h 2124075"/>
-            <a:gd name="connsiteX6" fmla="*/ 302458 w 6654131"/>
-            <a:gd name="connsiteY6" fmla="*/ 447675 h 2124075"/>
-            <a:gd name="connsiteX7" fmla="*/ 350083 w 6654131"/>
-            <a:gd name="connsiteY7" fmla="*/ 495300 h 2124075"/>
-            <a:gd name="connsiteX8" fmla="*/ 407233 w 6654131"/>
-            <a:gd name="connsiteY8" fmla="*/ 533400 h 2124075"/>
-            <a:gd name="connsiteX9" fmla="*/ 397708 w 6654131"/>
-            <a:gd name="connsiteY9" fmla="*/ 647700 h 2124075"/>
-            <a:gd name="connsiteX10" fmla="*/ 388183 w 6654131"/>
-            <a:gd name="connsiteY10" fmla="*/ 704850 h 2124075"/>
-            <a:gd name="connsiteX11" fmla="*/ 369133 w 6654131"/>
-            <a:gd name="connsiteY11" fmla="*/ 790575 h 2124075"/>
-            <a:gd name="connsiteX12" fmla="*/ 359608 w 6654131"/>
-            <a:gd name="connsiteY12" fmla="*/ 876300 h 2124075"/>
-            <a:gd name="connsiteX13" fmla="*/ 350083 w 6654131"/>
-            <a:gd name="connsiteY13" fmla="*/ 933450 h 2124075"/>
-            <a:gd name="connsiteX14" fmla="*/ 340558 w 6654131"/>
-            <a:gd name="connsiteY14" fmla="*/ 1009650 h 2124075"/>
-            <a:gd name="connsiteX15" fmla="*/ 350083 w 6654131"/>
-            <a:gd name="connsiteY15" fmla="*/ 1190625 h 2124075"/>
-            <a:gd name="connsiteX16" fmla="*/ 359608 w 6654131"/>
-            <a:gd name="connsiteY16" fmla="*/ 1228725 h 2124075"/>
-            <a:gd name="connsiteX17" fmla="*/ 378658 w 6654131"/>
-            <a:gd name="connsiteY17" fmla="*/ 1257300 h 2124075"/>
-            <a:gd name="connsiteX18" fmla="*/ 388183 w 6654131"/>
-            <a:gd name="connsiteY18" fmla="*/ 1314450 h 2124075"/>
-            <a:gd name="connsiteX19" fmla="*/ 397708 w 6654131"/>
-            <a:gd name="connsiteY19" fmla="*/ 1343025 h 2124075"/>
-            <a:gd name="connsiteX20" fmla="*/ 407233 w 6654131"/>
-            <a:gd name="connsiteY20" fmla="*/ 1381125 h 2124075"/>
-            <a:gd name="connsiteX21" fmla="*/ 397708 w 6654131"/>
-            <a:gd name="connsiteY21" fmla="*/ 1752600 h 2124075"/>
-            <a:gd name="connsiteX22" fmla="*/ 388183 w 6654131"/>
-            <a:gd name="connsiteY22" fmla="*/ 1800225 h 2124075"/>
-            <a:gd name="connsiteX23" fmla="*/ 397708 w 6654131"/>
-            <a:gd name="connsiteY23" fmla="*/ 1952625 h 2124075"/>
-            <a:gd name="connsiteX24" fmla="*/ 569158 w 6654131"/>
-            <a:gd name="connsiteY24" fmla="*/ 1943100 h 2124075"/>
-            <a:gd name="connsiteX25" fmla="*/ 654883 w 6654131"/>
-            <a:gd name="connsiteY25" fmla="*/ 1933575 h 2124075"/>
-            <a:gd name="connsiteX26" fmla="*/ 893008 w 6654131"/>
-            <a:gd name="connsiteY26" fmla="*/ 1924050 h 2124075"/>
-            <a:gd name="connsiteX27" fmla="*/ 2216983 w 6654131"/>
-            <a:gd name="connsiteY27" fmla="*/ 1933575 h 2124075"/>
-            <a:gd name="connsiteX28" fmla="*/ 2369383 w 6654131"/>
-            <a:gd name="connsiteY28" fmla="*/ 1952625 h 2124075"/>
-            <a:gd name="connsiteX29" fmla="*/ 3493333 w 6654131"/>
-            <a:gd name="connsiteY29" fmla="*/ 1924050 h 2124075"/>
-            <a:gd name="connsiteX30" fmla="*/ 3550483 w 6654131"/>
-            <a:gd name="connsiteY30" fmla="*/ 1914525 h 2124075"/>
-            <a:gd name="connsiteX31" fmla="*/ 4121983 w 6654131"/>
-            <a:gd name="connsiteY31" fmla="*/ 1933575 h 2124075"/>
-            <a:gd name="connsiteX32" fmla="*/ 4274383 w 6654131"/>
-            <a:gd name="connsiteY32" fmla="*/ 1952625 h 2124075"/>
-            <a:gd name="connsiteX33" fmla="*/ 4493458 w 6654131"/>
-            <a:gd name="connsiteY33" fmla="*/ 1971675 h 2124075"/>
-            <a:gd name="connsiteX34" fmla="*/ 4569658 w 6654131"/>
-            <a:gd name="connsiteY34" fmla="*/ 1981200 h 2124075"/>
-            <a:gd name="connsiteX35" fmla="*/ 4731583 w 6654131"/>
-            <a:gd name="connsiteY35" fmla="*/ 2000250 h 2124075"/>
-            <a:gd name="connsiteX36" fmla="*/ 4788733 w 6654131"/>
-            <a:gd name="connsiteY36" fmla="*/ 2019300 h 2124075"/>
-            <a:gd name="connsiteX37" fmla="*/ 4874458 w 6654131"/>
-            <a:gd name="connsiteY37" fmla="*/ 2028825 h 2124075"/>
-            <a:gd name="connsiteX38" fmla="*/ 4950658 w 6654131"/>
-            <a:gd name="connsiteY38" fmla="*/ 2038350 h 2124075"/>
-            <a:gd name="connsiteX39" fmla="*/ 4988758 w 6654131"/>
-            <a:gd name="connsiteY39" fmla="*/ 2047875 h 2124075"/>
-            <a:gd name="connsiteX40" fmla="*/ 5074483 w 6654131"/>
-            <a:gd name="connsiteY40" fmla="*/ 2057400 h 2124075"/>
-            <a:gd name="connsiteX41" fmla="*/ 5112583 w 6654131"/>
-            <a:gd name="connsiteY41" fmla="*/ 2066925 h 2124075"/>
-            <a:gd name="connsiteX42" fmla="*/ 5312608 w 6654131"/>
-            <a:gd name="connsiteY42" fmla="*/ 2085975 h 2124075"/>
-            <a:gd name="connsiteX43" fmla="*/ 5417383 w 6654131"/>
-            <a:gd name="connsiteY43" fmla="*/ 2105025 h 2124075"/>
-            <a:gd name="connsiteX44" fmla="*/ 5560258 w 6654131"/>
-            <a:gd name="connsiteY44" fmla="*/ 2114550 h 2124075"/>
-            <a:gd name="connsiteX45" fmla="*/ 5645983 w 6654131"/>
-            <a:gd name="connsiteY45" fmla="*/ 2124075 h 2124075"/>
-            <a:gd name="connsiteX46" fmla="*/ 5836483 w 6654131"/>
-            <a:gd name="connsiteY46" fmla="*/ 2114550 h 2124075"/>
-            <a:gd name="connsiteX47" fmla="*/ 5865058 w 6654131"/>
-            <a:gd name="connsiteY47" fmla="*/ 2105025 h 2124075"/>
-            <a:gd name="connsiteX48" fmla="*/ 5893633 w 6654131"/>
-            <a:gd name="connsiteY48" fmla="*/ 2085975 h 2124075"/>
-            <a:gd name="connsiteX49" fmla="*/ 5931733 w 6654131"/>
-            <a:gd name="connsiteY49" fmla="*/ 2028825 h 2124075"/>
-            <a:gd name="connsiteX50" fmla="*/ 5969833 w 6654131"/>
-            <a:gd name="connsiteY50" fmla="*/ 2000250 h 2124075"/>
-            <a:gd name="connsiteX51" fmla="*/ 6055558 w 6654131"/>
-            <a:gd name="connsiteY51" fmla="*/ 1943100 h 2124075"/>
-            <a:gd name="connsiteX52" fmla="*/ 6084133 w 6654131"/>
-            <a:gd name="connsiteY52" fmla="*/ 1914525 h 2124075"/>
-            <a:gd name="connsiteX53" fmla="*/ 6122233 w 6654131"/>
-            <a:gd name="connsiteY53" fmla="*/ 1895475 h 2124075"/>
-            <a:gd name="connsiteX54" fmla="*/ 6150808 w 6654131"/>
-            <a:gd name="connsiteY54" fmla="*/ 1876425 h 2124075"/>
-            <a:gd name="connsiteX55" fmla="*/ 6160333 w 6654131"/>
-            <a:gd name="connsiteY55" fmla="*/ 1809750 h 2124075"/>
-            <a:gd name="connsiteX56" fmla="*/ 6179383 w 6654131"/>
-            <a:gd name="connsiteY56" fmla="*/ 1771650 h 2124075"/>
-            <a:gd name="connsiteX57" fmla="*/ 6188908 w 6654131"/>
-            <a:gd name="connsiteY57" fmla="*/ 1743075 h 2124075"/>
-            <a:gd name="connsiteX58" fmla="*/ 6227008 w 6654131"/>
-            <a:gd name="connsiteY58" fmla="*/ 1666875 h 2124075"/>
-            <a:gd name="connsiteX59" fmla="*/ 6236533 w 6654131"/>
-            <a:gd name="connsiteY59" fmla="*/ 1638300 h 2124075"/>
-            <a:gd name="connsiteX60" fmla="*/ 6255583 w 6654131"/>
-            <a:gd name="connsiteY60" fmla="*/ 1571625 h 2124075"/>
-            <a:gd name="connsiteX61" fmla="*/ 6274633 w 6654131"/>
-            <a:gd name="connsiteY61" fmla="*/ 1533525 h 2124075"/>
-            <a:gd name="connsiteX62" fmla="*/ 6293683 w 6654131"/>
-            <a:gd name="connsiteY62" fmla="*/ 1466850 h 2124075"/>
-            <a:gd name="connsiteX63" fmla="*/ 6312733 w 6654131"/>
-            <a:gd name="connsiteY63" fmla="*/ 1228725 h 2124075"/>
-            <a:gd name="connsiteX64" fmla="*/ 6303208 w 6654131"/>
-            <a:gd name="connsiteY64" fmla="*/ 933450 h 2124075"/>
-            <a:gd name="connsiteX65" fmla="*/ 6312733 w 6654131"/>
-            <a:gd name="connsiteY65" fmla="*/ 876300 h 2124075"/>
-            <a:gd name="connsiteX66" fmla="*/ 6331783 w 6654131"/>
-            <a:gd name="connsiteY66" fmla="*/ 819150 h 2124075"/>
-            <a:gd name="connsiteX67" fmla="*/ 6350833 w 6654131"/>
-            <a:gd name="connsiteY67" fmla="*/ 438150 h 2124075"/>
-            <a:gd name="connsiteX68" fmla="*/ 6360358 w 6654131"/>
-            <a:gd name="connsiteY68" fmla="*/ 400050 h 2124075"/>
-            <a:gd name="connsiteX69" fmla="*/ 6379408 w 6654131"/>
-            <a:gd name="connsiteY69" fmla="*/ 361950 h 2124075"/>
-            <a:gd name="connsiteX70" fmla="*/ 6388933 w 6654131"/>
-            <a:gd name="connsiteY70" fmla="*/ 133350 h 2124075"/>
-            <a:gd name="connsiteX71" fmla="*/ 6398458 w 6654131"/>
-            <a:gd name="connsiteY71" fmla="*/ 104775 h 2124075"/>
-            <a:gd name="connsiteX72" fmla="*/ 6427033 w 6654131"/>
-            <a:gd name="connsiteY72" fmla="*/ 95250 h 2124075"/>
-            <a:gd name="connsiteX73" fmla="*/ 6474658 w 6654131"/>
-            <a:gd name="connsiteY73" fmla="*/ 85725 h 2124075"/>
-            <a:gd name="connsiteX74" fmla="*/ 6531808 w 6654131"/>
-            <a:gd name="connsiteY74" fmla="*/ 66675 h 2124075"/>
-            <a:gd name="connsiteX75" fmla="*/ 6579433 w 6654131"/>
-            <a:gd name="connsiteY75" fmla="*/ 57150 h 2124075"/>
-            <a:gd name="connsiteX76" fmla="*/ 6608008 w 6654131"/>
-            <a:gd name="connsiteY76" fmla="*/ 47625 h 2124075"/>
-            <a:gd name="connsiteX77" fmla="*/ 6646108 w 6654131"/>
-            <a:gd name="connsiteY77" fmla="*/ 38100 h 2124075"/>
-            <a:gd name="connsiteX78" fmla="*/ 6617533 w 6654131"/>
-            <a:gd name="connsiteY78" fmla="*/ 19050 h 2124075"/>
-            <a:gd name="connsiteX79" fmla="*/ 6493708 w 6654131"/>
-            <a:gd name="connsiteY79" fmla="*/ 0 h 2124075"/>
-            <a:gd name="connsiteX80" fmla="*/ 6579433 w 6654131"/>
-            <a:gd name="connsiteY80" fmla="*/ 28575 h 2124075"/>
-            <a:gd name="connsiteX81" fmla="*/ 6608008 w 6654131"/>
-            <a:gd name="connsiteY81" fmla="*/ 38100 h 2124075"/>
-            <a:gd name="connsiteX82" fmla="*/ 6636583 w 6654131"/>
-            <a:gd name="connsiteY82" fmla="*/ 57150 h 2124075"/>
-            <a:gd name="connsiteX83" fmla="*/ 6636583 w 6654131"/>
-            <a:gd name="connsiteY83" fmla="*/ 123825 h 2124075"/>
-            <a:gd name="connsiteX84" fmla="*/ 6617533 w 6654131"/>
-            <a:gd name="connsiteY84" fmla="*/ 180975 h 2124075"/>
-            <a:gd name="connsiteX85" fmla="*/ 6608008 w 6654131"/>
-            <a:gd name="connsiteY85" fmla="*/ 209550 h 2124075"/>
-            <a:gd name="connsiteX86" fmla="*/ 6588958 w 6654131"/>
-            <a:gd name="connsiteY86" fmla="*/ 228600 h 2124075"/>
+            <a:gd name="connsiteX0" fmla="*/ 372245 w 372245"/>
+            <a:gd name="connsiteY0" fmla="*/ 171450 h 171450"/>
+            <a:gd name="connsiteX1" fmla="*/ 315095 w 372245"/>
+            <a:gd name="connsiteY1" fmla="*/ 161925 h 171450"/>
+            <a:gd name="connsiteX2" fmla="*/ 238895 w 372245"/>
+            <a:gd name="connsiteY2" fmla="*/ 142875 h 171450"/>
+            <a:gd name="connsiteX3" fmla="*/ 181745 w 372245"/>
+            <a:gd name="connsiteY3" fmla="*/ 114300 h 171450"/>
+            <a:gd name="connsiteX4" fmla="*/ 115070 w 372245"/>
+            <a:gd name="connsiteY4" fmla="*/ 76200 h 171450"/>
+            <a:gd name="connsiteX5" fmla="*/ 86495 w 372245"/>
+            <a:gd name="connsiteY5" fmla="*/ 85725 h 171450"/>
+            <a:gd name="connsiteX6" fmla="*/ 29345 w 372245"/>
+            <a:gd name="connsiteY6" fmla="*/ 66675 h 171450"/>
+            <a:gd name="connsiteX7" fmla="*/ 770 w 372245"/>
+            <a:gd name="connsiteY7" fmla="*/ 9525 h 171450"/>
+            <a:gd name="connsiteX8" fmla="*/ 770 w 372245"/>
+            <a:gd name="connsiteY8" fmla="*/ 0 h 171450"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -3913,663 +3347,1257 @@
             <a:cxn ang="0">
               <a:pos x="connsiteX8" y="connsiteY8"/>
             </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX9" y="connsiteY9"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX10" y="connsiteY10"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX11" y="connsiteY11"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX12" y="connsiteY12"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX13" y="connsiteY13"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX14" y="connsiteY14"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX15" y="connsiteY15"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX16" y="connsiteY16"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX17" y="connsiteY17"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX18" y="connsiteY18"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX19" y="connsiteY19"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX20" y="connsiteY20"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX21" y="connsiteY21"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX22" y="connsiteY22"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX23" y="connsiteY23"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX24" y="connsiteY24"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX25" y="connsiteY25"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX26" y="connsiteY26"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX27" y="connsiteY27"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX28" y="connsiteY28"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX29" y="connsiteY29"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX30" y="connsiteY30"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX31" y="connsiteY31"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX32" y="connsiteY32"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX33" y="connsiteY33"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX34" y="connsiteY34"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX35" y="connsiteY35"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX36" y="connsiteY36"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX37" y="connsiteY37"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX38" y="connsiteY38"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX39" y="connsiteY39"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX40" y="connsiteY40"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX41" y="connsiteY41"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX42" y="connsiteY42"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX43" y="connsiteY43"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX44" y="connsiteY44"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX45" y="connsiteY45"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX46" y="connsiteY46"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX47" y="connsiteY47"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX48" y="connsiteY48"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX49" y="connsiteY49"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX50" y="connsiteY50"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX51" y="connsiteY51"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX52" y="connsiteY52"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX53" y="connsiteY53"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX54" y="connsiteY54"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX55" y="connsiteY55"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX56" y="connsiteY56"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX57" y="connsiteY57"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX58" y="connsiteY58"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX59" y="connsiteY59"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX60" y="connsiteY60"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX61" y="connsiteY61"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX62" y="connsiteY62"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX63" y="connsiteY63"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX64" y="connsiteY64"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX65" y="connsiteY65"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX66" y="connsiteY66"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX67" y="connsiteY67"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX68" y="connsiteY68"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX69" y="connsiteY69"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX70" y="connsiteY70"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX71" y="connsiteY71"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX72" y="connsiteY72"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX73" y="connsiteY73"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX74" y="connsiteY74"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX75" y="connsiteY75"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX76" y="connsiteY76"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX77" y="connsiteY77"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX78" y="connsiteY78"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX79" y="connsiteY79"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX80" y="connsiteY80"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX81" y="connsiteY81"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX82" y="connsiteY82"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX83" y="connsiteY83"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX84" y="connsiteY84"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX85" y="connsiteY85"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX86" y="connsiteY86"/>
-            </a:cxn>
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="6654131" h="2124075">
+            <a:path w="372245" h="171450">
               <a:moveTo>
-                <a:pt x="16708" y="228600"/>
+                <a:pt x="372245" y="171450"/>
               </a:moveTo>
               <a:cubicBezTo>
-                <a:pt x="88532" y="252541"/>
-                <a:pt x="0" y="220246"/>
-                <a:pt x="73858" y="257175"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="82838" y="261665"/>
-                <a:pt x="92908" y="263525"/>
-                <a:pt x="102433" y="266700"/>
+                <a:pt x="353195" y="168275"/>
+                <a:pt x="333979" y="165972"/>
+                <a:pt x="315095" y="161925"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="289494" y="156439"/>
+                <a:pt x="238895" y="142875"/>
+                <a:pt x="238895" y="142875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="183981" y="106266"/>
+                <a:pt x="236954" y="137961"/>
+                <a:pt x="181745" y="114300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="147908" y="99798"/>
+                <a:pt x="143768" y="95332"/>
+                <a:pt x="115070" y="76200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="105545" y="79375"/>
+                <a:pt x="96474" y="86834"/>
+                <a:pt x="86495" y="85725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="66537" y="83507"/>
+                <a:pt x="29345" y="66675"/>
+                <a:pt x="29345" y="66675"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10721" y="38739"/>
+                <a:pt x="8657" y="41073"/>
+                <a:pt x="770" y="9525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="6445"/>
+                <a:pt x="770" y="3175"/>
+                <a:pt x="770" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Freeform 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="2759075"/>
+          <a:ext cx="5172075" cy="1860550"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 5172075"/>
+            <a:gd name="connsiteY0" fmla="*/ 269875 h 1860550"/>
+            <a:gd name="connsiteX1" fmla="*/ 47625 w 5172075"/>
+            <a:gd name="connsiteY1" fmla="*/ 288925 h 1860550"/>
+            <a:gd name="connsiteX2" fmla="*/ 66675 w 5172075"/>
+            <a:gd name="connsiteY2" fmla="*/ 317500 h 1860550"/>
+            <a:gd name="connsiteX3" fmla="*/ 95250 w 5172075"/>
+            <a:gd name="connsiteY3" fmla="*/ 336550 h 1860550"/>
+            <a:gd name="connsiteX4" fmla="*/ 161925 w 5172075"/>
+            <a:gd name="connsiteY4" fmla="*/ 412750 h 1860550"/>
+            <a:gd name="connsiteX5" fmla="*/ 190500 w 5172075"/>
+            <a:gd name="connsiteY5" fmla="*/ 422275 h 1860550"/>
+            <a:gd name="connsiteX6" fmla="*/ 209550 w 5172075"/>
+            <a:gd name="connsiteY6" fmla="*/ 450850 h 1860550"/>
+            <a:gd name="connsiteX7" fmla="*/ 257175 w 5172075"/>
+            <a:gd name="connsiteY7" fmla="*/ 488950 h 1860550"/>
+            <a:gd name="connsiteX8" fmla="*/ 276225 w 5172075"/>
+            <a:gd name="connsiteY8" fmla="*/ 546100 h 1860550"/>
+            <a:gd name="connsiteX9" fmla="*/ 285750 w 5172075"/>
+            <a:gd name="connsiteY9" fmla="*/ 574675 h 1860550"/>
+            <a:gd name="connsiteX10" fmla="*/ 304800 w 5172075"/>
+            <a:gd name="connsiteY10" fmla="*/ 850900 h 1860550"/>
+            <a:gd name="connsiteX11" fmla="*/ 314325 w 5172075"/>
+            <a:gd name="connsiteY11" fmla="*/ 917575 h 1860550"/>
+            <a:gd name="connsiteX12" fmla="*/ 323850 w 5172075"/>
+            <a:gd name="connsiteY12" fmla="*/ 1003300 h 1860550"/>
+            <a:gd name="connsiteX13" fmla="*/ 333375 w 5172075"/>
+            <a:gd name="connsiteY13" fmla="*/ 1031875 h 1860550"/>
+            <a:gd name="connsiteX14" fmla="*/ 342900 w 5172075"/>
+            <a:gd name="connsiteY14" fmla="*/ 1079500 h 1860550"/>
+            <a:gd name="connsiteX15" fmla="*/ 361950 w 5172075"/>
+            <a:gd name="connsiteY15" fmla="*/ 1136650 h 1860550"/>
+            <a:gd name="connsiteX16" fmla="*/ 371475 w 5172075"/>
+            <a:gd name="connsiteY16" fmla="*/ 1174750 h 1860550"/>
+            <a:gd name="connsiteX17" fmla="*/ 390525 w 5172075"/>
+            <a:gd name="connsiteY17" fmla="*/ 1231900 h 1860550"/>
+            <a:gd name="connsiteX18" fmla="*/ 419100 w 5172075"/>
+            <a:gd name="connsiteY18" fmla="*/ 1298575 h 1860550"/>
+            <a:gd name="connsiteX19" fmla="*/ 428625 w 5172075"/>
+            <a:gd name="connsiteY19" fmla="*/ 1327150 h 1860550"/>
+            <a:gd name="connsiteX20" fmla="*/ 447675 w 5172075"/>
+            <a:gd name="connsiteY20" fmla="*/ 1422400 h 1860550"/>
+            <a:gd name="connsiteX21" fmla="*/ 457200 w 5172075"/>
+            <a:gd name="connsiteY21" fmla="*/ 1612900 h 1860550"/>
+            <a:gd name="connsiteX22" fmla="*/ 523875 w 5172075"/>
+            <a:gd name="connsiteY22" fmla="*/ 1660525 h 1860550"/>
+            <a:gd name="connsiteX23" fmla="*/ 581025 w 5172075"/>
+            <a:gd name="connsiteY23" fmla="*/ 1679575 h 1860550"/>
+            <a:gd name="connsiteX24" fmla="*/ 695325 w 5172075"/>
+            <a:gd name="connsiteY24" fmla="*/ 1698625 h 1860550"/>
+            <a:gd name="connsiteX25" fmla="*/ 723900 w 5172075"/>
+            <a:gd name="connsiteY25" fmla="*/ 1679575 h 1860550"/>
+            <a:gd name="connsiteX26" fmla="*/ 762000 w 5172075"/>
+            <a:gd name="connsiteY26" fmla="*/ 1689100 h 1860550"/>
+            <a:gd name="connsiteX27" fmla="*/ 819150 w 5172075"/>
+            <a:gd name="connsiteY27" fmla="*/ 1708150 h 1860550"/>
+            <a:gd name="connsiteX28" fmla="*/ 847725 w 5172075"/>
+            <a:gd name="connsiteY28" fmla="*/ 1717675 h 1860550"/>
+            <a:gd name="connsiteX29" fmla="*/ 866775 w 5172075"/>
+            <a:gd name="connsiteY29" fmla="*/ 1746250 h 1860550"/>
+            <a:gd name="connsiteX30" fmla="*/ 923925 w 5172075"/>
+            <a:gd name="connsiteY30" fmla="*/ 1784350 h 1860550"/>
+            <a:gd name="connsiteX31" fmla="*/ 1152525 w 5172075"/>
+            <a:gd name="connsiteY31" fmla="*/ 1803400 h 1860550"/>
+            <a:gd name="connsiteX32" fmla="*/ 1276350 w 5172075"/>
+            <a:gd name="connsiteY32" fmla="*/ 1822450 h 1860550"/>
+            <a:gd name="connsiteX33" fmla="*/ 1333500 w 5172075"/>
+            <a:gd name="connsiteY33" fmla="*/ 1831975 h 1860550"/>
+            <a:gd name="connsiteX34" fmla="*/ 1457325 w 5172075"/>
+            <a:gd name="connsiteY34" fmla="*/ 1841500 h 1860550"/>
+            <a:gd name="connsiteX35" fmla="*/ 1609725 w 5172075"/>
+            <a:gd name="connsiteY35" fmla="*/ 1860550 h 1860550"/>
+            <a:gd name="connsiteX36" fmla="*/ 1933575 w 5172075"/>
+            <a:gd name="connsiteY36" fmla="*/ 1851025 h 1860550"/>
+            <a:gd name="connsiteX37" fmla="*/ 2028825 w 5172075"/>
+            <a:gd name="connsiteY37" fmla="*/ 1831975 h 1860550"/>
+            <a:gd name="connsiteX38" fmla="*/ 2057400 w 5172075"/>
+            <a:gd name="connsiteY38" fmla="*/ 1822450 h 1860550"/>
+            <a:gd name="connsiteX39" fmla="*/ 2152650 w 5172075"/>
+            <a:gd name="connsiteY39" fmla="*/ 1812925 h 1860550"/>
+            <a:gd name="connsiteX40" fmla="*/ 2238375 w 5172075"/>
+            <a:gd name="connsiteY40" fmla="*/ 1793875 h 1860550"/>
+            <a:gd name="connsiteX41" fmla="*/ 2371725 w 5172075"/>
+            <a:gd name="connsiteY41" fmla="*/ 1774825 h 1860550"/>
+            <a:gd name="connsiteX42" fmla="*/ 2724150 w 5172075"/>
+            <a:gd name="connsiteY42" fmla="*/ 1784350 h 1860550"/>
+            <a:gd name="connsiteX43" fmla="*/ 2800350 w 5172075"/>
+            <a:gd name="connsiteY43" fmla="*/ 1793875 h 1860550"/>
+            <a:gd name="connsiteX44" fmla="*/ 2828925 w 5172075"/>
+            <a:gd name="connsiteY44" fmla="*/ 1803400 h 1860550"/>
+            <a:gd name="connsiteX45" fmla="*/ 2867025 w 5172075"/>
+            <a:gd name="connsiteY45" fmla="*/ 1812925 h 1860550"/>
+            <a:gd name="connsiteX46" fmla="*/ 2933700 w 5172075"/>
+            <a:gd name="connsiteY46" fmla="*/ 1822450 h 1860550"/>
+            <a:gd name="connsiteX47" fmla="*/ 3000375 w 5172075"/>
+            <a:gd name="connsiteY47" fmla="*/ 1851025 h 1860550"/>
+            <a:gd name="connsiteX48" fmla="*/ 3057525 w 5172075"/>
+            <a:gd name="connsiteY48" fmla="*/ 1860550 h 1860550"/>
+            <a:gd name="connsiteX49" fmla="*/ 3228975 w 5172075"/>
+            <a:gd name="connsiteY49" fmla="*/ 1851025 h 1860550"/>
+            <a:gd name="connsiteX50" fmla="*/ 3267075 w 5172075"/>
+            <a:gd name="connsiteY50" fmla="*/ 1841500 h 1860550"/>
+            <a:gd name="connsiteX51" fmla="*/ 3552825 w 5172075"/>
+            <a:gd name="connsiteY51" fmla="*/ 1803400 h 1860550"/>
+            <a:gd name="connsiteX52" fmla="*/ 4400550 w 5172075"/>
+            <a:gd name="connsiteY52" fmla="*/ 1793875 h 1860550"/>
+            <a:gd name="connsiteX53" fmla="*/ 4648200 w 5172075"/>
+            <a:gd name="connsiteY53" fmla="*/ 1784350 h 1860550"/>
+            <a:gd name="connsiteX54" fmla="*/ 4781550 w 5172075"/>
+            <a:gd name="connsiteY54" fmla="*/ 1765300 h 1860550"/>
+            <a:gd name="connsiteX55" fmla="*/ 4848225 w 5172075"/>
+            <a:gd name="connsiteY55" fmla="*/ 1755775 h 1860550"/>
+            <a:gd name="connsiteX56" fmla="*/ 4914900 w 5172075"/>
+            <a:gd name="connsiteY56" fmla="*/ 1736725 h 1860550"/>
+            <a:gd name="connsiteX57" fmla="*/ 4924425 w 5172075"/>
+            <a:gd name="connsiteY57" fmla="*/ 1651000 h 1860550"/>
+            <a:gd name="connsiteX58" fmla="*/ 4933950 w 5172075"/>
+            <a:gd name="connsiteY58" fmla="*/ 1574800 h 1860550"/>
+            <a:gd name="connsiteX59" fmla="*/ 4924425 w 5172075"/>
+            <a:gd name="connsiteY59" fmla="*/ 898525 h 1860550"/>
+            <a:gd name="connsiteX60" fmla="*/ 4905375 w 5172075"/>
+            <a:gd name="connsiteY60" fmla="*/ 536575 h 1860550"/>
+            <a:gd name="connsiteX61" fmla="*/ 4914900 w 5172075"/>
+            <a:gd name="connsiteY61" fmla="*/ 203200 h 1860550"/>
+            <a:gd name="connsiteX62" fmla="*/ 4933950 w 5172075"/>
+            <a:gd name="connsiteY62" fmla="*/ 69850 h 1860550"/>
+            <a:gd name="connsiteX63" fmla="*/ 5038725 w 5172075"/>
+            <a:gd name="connsiteY63" fmla="*/ 79375 h 1860550"/>
+            <a:gd name="connsiteX64" fmla="*/ 5086350 w 5172075"/>
+            <a:gd name="connsiteY64" fmla="*/ 88900 h 1860550"/>
+            <a:gd name="connsiteX65" fmla="*/ 5172075 w 5172075"/>
+            <a:gd name="connsiteY65" fmla="*/ 79375 h 1860550"/>
+            <a:gd name="connsiteX66" fmla="*/ 5143500 w 5172075"/>
+            <a:gd name="connsiteY66" fmla="*/ 69850 h 1860550"/>
+            <a:gd name="connsiteX67" fmla="*/ 5095875 w 5172075"/>
+            <a:gd name="connsiteY67" fmla="*/ 31750 h 1860550"/>
+            <a:gd name="connsiteX68" fmla="*/ 5105400 w 5172075"/>
+            <a:gd name="connsiteY68" fmla="*/ 69850 h 1860550"/>
+            <a:gd name="connsiteX69" fmla="*/ 5153025 w 5172075"/>
+            <a:gd name="connsiteY69" fmla="*/ 107950 h 1860550"/>
+            <a:gd name="connsiteX70" fmla="*/ 5114925 w 5172075"/>
+            <a:gd name="connsiteY70" fmla="*/ 155575 h 1860550"/>
+            <a:gd name="connsiteX71" fmla="*/ 5095875 w 5172075"/>
+            <a:gd name="connsiteY71" fmla="*/ 184150 h 1860550"/>
+            <a:gd name="connsiteX72" fmla="*/ 5057775 w 5172075"/>
+            <a:gd name="connsiteY72" fmla="*/ 212725 h 1860550"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX44" y="connsiteY44"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX45" y="connsiteY45"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX46" y="connsiteY46"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX47" y="connsiteY47"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX48" y="connsiteY48"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX49" y="connsiteY49"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX50" y="connsiteY50"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX51" y="connsiteY51"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX52" y="connsiteY52"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX53" y="connsiteY53"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX54" y="connsiteY54"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX55" y="connsiteY55"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX56" y="connsiteY56"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX57" y="connsiteY57"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX58" y="connsiteY58"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX59" y="connsiteY59"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX60" y="connsiteY60"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX61" y="connsiteY61"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX62" y="connsiteY62"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX63" y="connsiteY63"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX64" y="connsiteY64"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX65" y="connsiteY65"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX66" y="connsiteY66"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX67" y="connsiteY67"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX68" y="connsiteY68"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX69" y="connsiteY69"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX70" y="connsiteY70"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX71" y="connsiteY71"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX72" y="connsiteY72"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="5172075" h="1860550">
+              <a:moveTo>
+                <a:pt x="0" y="269875"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="15875" y="276225"/>
+                <a:pt x="33712" y="278987"/>
+                <a:pt x="47625" y="288925"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="56940" y="295579"/>
+                <a:pt x="58580" y="309405"/>
+                <a:pt x="66675" y="317500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="74770" y="325595"/>
+                <a:pt x="85725" y="330200"/>
+                <a:pt x="95250" y="336550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="123825" y="379412"/>
+                <a:pt x="122238" y="392906"/>
+                <a:pt x="161925" y="412750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="170905" y="417240"/>
+                <a:pt x="180975" y="419100"/>
+                <a:pt x="190500" y="422275"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="196850" y="431800"/>
+                <a:pt x="200611" y="443699"/>
+                <a:pt x="209550" y="450850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="250508" y="483617"/>
+                <a:pt x="230819" y="429649"/>
+                <a:pt x="257175" y="488950"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="265330" y="507300"/>
+                <a:pt x="269875" y="527050"/>
+                <a:pt x="276225" y="546100"/>
               </a:cubicBezTo>
               <a:lnTo>
-                <a:pt x="159583" y="304800"/>
+                <a:pt x="285750" y="574675"/>
               </a:lnTo>
               <a:cubicBezTo>
-                <a:pt x="206396" y="336008"/>
-                <a:pt x="172066" y="326808"/>
-                <a:pt x="207208" y="361950"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="215303" y="370045"/>
-                <a:pt x="226258" y="374650"/>
-                <a:pt x="235783" y="381000"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="279452" y="446504"/>
-                <a:pt x="252163" y="430910"/>
-                <a:pt x="302458" y="447675"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="337383" y="500062"/>
-                <a:pt x="302458" y="455612"/>
-                <a:pt x="350083" y="495300"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="397649" y="534938"/>
-                <a:pt x="357015" y="516661"/>
-                <a:pt x="407233" y="533400"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="422761" y="611038"/>
-                <a:pt x="419108" y="554969"/>
-                <a:pt x="397708" y="647700"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="393365" y="666518"/>
-                <a:pt x="391638" y="685849"/>
-                <a:pt x="388183" y="704850"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="380121" y="749189"/>
-                <a:pt x="379325" y="749806"/>
-                <a:pt x="369133" y="790575"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="365958" y="819150"/>
-                <a:pt x="363408" y="847801"/>
-                <a:pt x="359608" y="876300"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="357056" y="895443"/>
-                <a:pt x="352814" y="914331"/>
-                <a:pt x="350083" y="933450"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="346463" y="958790"/>
-                <a:pt x="343733" y="984250"/>
-                <a:pt x="340558" y="1009650"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="343733" y="1069975"/>
-                <a:pt x="344850" y="1130444"/>
-                <a:pt x="350083" y="1190625"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="351217" y="1203667"/>
-                <a:pt x="354451" y="1216693"/>
-                <a:pt x="359608" y="1228725"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="364117" y="1239247"/>
-                <a:pt x="372308" y="1247775"/>
-                <a:pt x="378658" y="1257300"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="381833" y="1276350"/>
-                <a:pt x="383993" y="1295597"/>
-                <a:pt x="388183" y="1314450"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="390361" y="1324251"/>
-                <a:pt x="394950" y="1333371"/>
-                <a:pt x="397708" y="1343025"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="401304" y="1355612"/>
-                <a:pt x="404058" y="1368425"/>
-                <a:pt x="407233" y="1381125"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="404058" y="1504950"/>
-                <a:pt x="403332" y="1628862"/>
-                <a:pt x="397708" y="1752600"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="396973" y="1768773"/>
-                <a:pt x="388183" y="1784036"/>
-                <a:pt x="388183" y="1800225"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="388183" y="1851124"/>
-                <a:pt x="394533" y="1901825"/>
-                <a:pt x="397708" y="1952625"/>
+                <a:pt x="308361" y="755560"/>
+                <a:pt x="281524" y="525042"/>
+                <a:pt x="304800" y="850900"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="306400" y="873294"/>
+                <a:pt x="311540" y="895298"/>
+                <a:pt x="314325" y="917575"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="317891" y="946104"/>
+                <a:pt x="319123" y="974940"/>
+                <a:pt x="323850" y="1003300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="325501" y="1013204"/>
+                <a:pt x="330940" y="1022135"/>
+                <a:pt x="333375" y="1031875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="337302" y="1047581"/>
+                <a:pt x="338640" y="1063881"/>
+                <a:pt x="342900" y="1079500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="348184" y="1098873"/>
+                <a:pt x="355600" y="1117600"/>
+                <a:pt x="361950" y="1136650"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="366090" y="1149069"/>
+                <a:pt x="367713" y="1162211"/>
+                <a:pt x="371475" y="1174750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="377245" y="1193984"/>
+                <a:pt x="384175" y="1212850"/>
+                <a:pt x="390525" y="1231900"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="412863" y="1298913"/>
+                <a:pt x="383790" y="1216185"/>
+                <a:pt x="419100" y="1298575"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="423055" y="1307803"/>
+                <a:pt x="425867" y="1317496"/>
+                <a:pt x="428625" y="1327150"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="439992" y="1366935"/>
+                <a:pt x="440190" y="1377492"/>
+                <a:pt x="447675" y="1422400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="450850" y="1485900"/>
+                <a:pt x="446306" y="1550261"/>
+                <a:pt x="457200" y="1612900"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="460641" y="1632688"/>
+                <a:pt x="510803" y="1655296"/>
+                <a:pt x="523875" y="1660525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="542519" y="1667983"/>
+                <a:pt x="561334" y="1675637"/>
+                <a:pt x="581025" y="1679575"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="650665" y="1693503"/>
+                <a:pt x="612623" y="1686810"/>
+                <a:pt x="695325" y="1698625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="704850" y="1692275"/>
+                <a:pt x="712567" y="1681194"/>
+                <a:pt x="723900" y="1679575"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="736859" y="1677724"/>
+                <a:pt x="749461" y="1685338"/>
+                <a:pt x="762000" y="1689100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="781234" y="1694870"/>
+                <a:pt x="800100" y="1701800"/>
+                <a:pt x="819150" y="1708150"/>
               </a:cubicBezTo>
               <a:lnTo>
-                <a:pt x="569158" y="1943100"/>
+                <a:pt x="847725" y="1717675"/>
               </a:lnTo>
               <a:cubicBezTo>
-                <a:pt x="597830" y="1940976"/>
-                <a:pt x="626182" y="1935263"/>
-                <a:pt x="654883" y="1933575"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="734184" y="1928910"/>
-                <a:pt x="813633" y="1927225"/>
-                <a:pt x="893008" y="1924050"/>
+                <a:pt x="854075" y="1727200"/>
+                <a:pt x="858160" y="1738712"/>
+                <a:pt x="866775" y="1746250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="884005" y="1761327"/>
+                <a:pt x="901474" y="1779860"/>
+                <a:pt x="923925" y="1784350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1030785" y="1805722"/>
+                <a:pt x="955383" y="1793024"/>
+                <a:pt x="1152525" y="1803400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1215345" y="1824340"/>
+                <a:pt x="1158481" y="1807716"/>
+                <a:pt x="1276350" y="1822450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1295514" y="1824845"/>
+                <a:pt x="1314293" y="1829953"/>
+                <a:pt x="1333500" y="1831975"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1374669" y="1836309"/>
+                <a:pt x="1416084" y="1837914"/>
+                <a:pt x="1457325" y="1841500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1553061" y="1849825"/>
+                <a:pt x="1532438" y="1847669"/>
+                <a:pt x="1609725" y="1860550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1717675" y="1857375"/>
+                <a:pt x="1825713" y="1856418"/>
+                <a:pt x="1933575" y="1851025"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1956256" y="1849891"/>
+                <a:pt x="2004106" y="1839038"/>
+                <a:pt x="2028825" y="1831975"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2038479" y="1829217"/>
+                <a:pt x="2047477" y="1823977"/>
+                <a:pt x="2057400" y="1822450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2088937" y="1817598"/>
+                <a:pt x="2121022" y="1817142"/>
+                <a:pt x="2152650" y="1812925"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2328525" y="1789475"/>
+                <a:pt x="2091245" y="1816510"/>
+                <a:pt x="2238375" y="1793875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2434464" y="1763707"/>
+                <a:pt x="2242823" y="1800605"/>
+                <a:pt x="2371725" y="1774825"/>
               </a:cubicBezTo>
               <a:lnTo>
-                <a:pt x="2216983" y="1933575"/>
+                <a:pt x="2724150" y="1784350"/>
               </a:lnTo>
               <a:cubicBezTo>
-                <a:pt x="2287638" y="1934517"/>
-                <a:pt x="2310564" y="1940861"/>
-                <a:pt x="2369383" y="1952625"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="3398180" y="1932648"/>
-                <a:pt x="3024096" y="1955332"/>
-                <a:pt x="3493333" y="1924050"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="3512383" y="1920875"/>
-                <a:pt x="3531170" y="1914525"/>
-                <a:pt x="3550483" y="1914525"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="3802530" y="1914525"/>
-                <a:pt x="3920205" y="1910293"/>
-                <a:pt x="4121983" y="1933575"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4172841" y="1939443"/>
-                <a:pt x="4223338" y="1948698"/>
-                <a:pt x="4274383" y="1952625"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4372492" y="1960172"/>
-                <a:pt x="4401360" y="1961442"/>
-                <a:pt x="4493458" y="1971675"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4518899" y="1974502"/>
-                <a:pt x="4544217" y="1978373"/>
-                <a:pt x="4569658" y="1981200"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4728403" y="1998838"/>
-                <a:pt x="4604363" y="1982076"/>
-                <a:pt x="4731583" y="2000250"/>
+                <a:pt x="2749722" y="1785487"/>
+                <a:pt x="2775165" y="1789296"/>
+                <a:pt x="2800350" y="1793875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2810228" y="1795671"/>
+                <a:pt x="2819271" y="1800642"/>
+                <a:pt x="2828925" y="1803400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2841512" y="1806996"/>
+                <a:pt x="2854145" y="1810583"/>
+                <a:pt x="2867025" y="1812925"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2889114" y="1816941"/>
+                <a:pt x="2911475" y="1819275"/>
+                <a:pt x="2933700" y="1822450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2956996" y="1834098"/>
+                <a:pt x="2975148" y="1845419"/>
+                <a:pt x="3000375" y="1851025"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3019228" y="1855215"/>
+                <a:pt x="3038475" y="1857375"/>
+                <a:pt x="3057525" y="1860550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3114675" y="1857375"/>
+                <a:pt x="3171972" y="1856207"/>
+                <a:pt x="3228975" y="1851025"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3242012" y="1849840"/>
+                <a:pt x="3254208" y="1843912"/>
+                <a:pt x="3267075" y="1841500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3338013" y="1828199"/>
+                <a:pt x="3491977" y="1804084"/>
+                <a:pt x="3552825" y="1803400"/>
               </a:cubicBezTo>
               <a:lnTo>
-                <a:pt x="4788733" y="2019300"/>
+                <a:pt x="4400550" y="1793875"/>
               </a:lnTo>
               <a:cubicBezTo>
-                <a:pt x="4816008" y="2028392"/>
-                <a:pt x="4845904" y="2025466"/>
-                <a:pt x="4874458" y="2028825"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4899880" y="2031816"/>
-                <a:pt x="4925409" y="2034142"/>
-                <a:pt x="4950658" y="2038350"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="4963571" y="2040502"/>
-                <a:pt x="4975819" y="2045884"/>
-                <a:pt x="4988758" y="2047875"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5017175" y="2052247"/>
-                <a:pt x="5045908" y="2054225"/>
-                <a:pt x="5074483" y="2057400"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5087183" y="2060575"/>
-                <a:pt x="5099703" y="2064583"/>
-                <a:pt x="5112583" y="2066925"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5184271" y="2079959"/>
-                <a:pt x="5234481" y="2080394"/>
-                <a:pt x="5312608" y="2085975"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5337379" y="2090929"/>
-                <a:pt x="5394118" y="2102809"/>
-                <a:pt x="5417383" y="2105025"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5464899" y="2109550"/>
-                <a:pt x="5512692" y="2110586"/>
-                <a:pt x="5560258" y="2114550"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5588910" y="2116938"/>
-                <a:pt x="5617408" y="2120900"/>
-                <a:pt x="5645983" y="2124075"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5709483" y="2120900"/>
-                <a:pt x="5773143" y="2120058"/>
-                <a:pt x="5836483" y="2114550"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5846485" y="2113680"/>
-                <a:pt x="5856078" y="2109515"/>
-                <a:pt x="5865058" y="2105025"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5875297" y="2099905"/>
-                <a:pt x="5884108" y="2092325"/>
-                <a:pt x="5893633" y="2085975"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5906333" y="2066925"/>
-                <a:pt x="5913417" y="2042562"/>
-                <a:pt x="5931733" y="2028825"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5944433" y="2019300"/>
-                <a:pt x="5956828" y="2009354"/>
-                <a:pt x="5969833" y="2000250"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="5997968" y="1980556"/>
-                <a:pt x="6026983" y="1962150"/>
-                <a:pt x="6055558" y="1943100"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6066766" y="1935628"/>
-                <a:pt x="6073172" y="1922355"/>
-                <a:pt x="6084133" y="1914525"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6095687" y="1906272"/>
-                <a:pt x="6109905" y="1902520"/>
-                <a:pt x="6122233" y="1895475"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6132172" y="1889795"/>
-                <a:pt x="6141283" y="1882775"/>
-                <a:pt x="6150808" y="1876425"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6153983" y="1854200"/>
-                <a:pt x="6154426" y="1831410"/>
-                <a:pt x="6160333" y="1809750"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6164069" y="1796051"/>
-                <a:pt x="6173790" y="1784701"/>
-                <a:pt x="6179383" y="1771650"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6183338" y="1762422"/>
-                <a:pt x="6184753" y="1752215"/>
-                <a:pt x="6188908" y="1743075"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6200659" y="1717222"/>
-                <a:pt x="6218028" y="1693816"/>
-                <a:pt x="6227008" y="1666875"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6230183" y="1657350"/>
-                <a:pt x="6233775" y="1647954"/>
-                <a:pt x="6236533" y="1638300"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6243438" y="1614133"/>
-                <a:pt x="6245795" y="1594463"/>
-                <a:pt x="6255583" y="1571625"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6261176" y="1558574"/>
-                <a:pt x="6269040" y="1546576"/>
-                <a:pt x="6274633" y="1533525"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6282832" y="1514394"/>
-                <a:pt x="6288850" y="1486184"/>
-                <a:pt x="6293683" y="1466850"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6300171" y="1401971"/>
-                <a:pt x="6312733" y="1286963"/>
-                <a:pt x="6312733" y="1228725"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6312733" y="1130249"/>
-                <a:pt x="6306383" y="1031875"/>
-                <a:pt x="6303208" y="933450"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6306383" y="914400"/>
-                <a:pt x="6308049" y="895036"/>
-                <a:pt x="6312733" y="876300"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6317603" y="856819"/>
-                <a:pt x="6330043" y="839155"/>
-                <a:pt x="6331783" y="819150"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6342799" y="692469"/>
-                <a:pt x="6342183" y="565014"/>
-                <a:pt x="6350833" y="438150"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6351723" y="425089"/>
-                <a:pt x="6355761" y="412307"/>
-                <a:pt x="6360358" y="400050"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6365344" y="386755"/>
-                <a:pt x="6373058" y="374650"/>
-                <a:pt x="6379408" y="361950"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6382583" y="285750"/>
-                <a:pt x="6383299" y="209408"/>
-                <a:pt x="6388933" y="133350"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6389675" y="123337"/>
-                <a:pt x="6391358" y="111875"/>
-                <a:pt x="6398458" y="104775"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6405558" y="97675"/>
-                <a:pt x="6417293" y="97685"/>
-                <a:pt x="6427033" y="95250"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6442739" y="91323"/>
-                <a:pt x="6459039" y="89985"/>
-                <a:pt x="6474658" y="85725"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6494031" y="80441"/>
-                <a:pt x="6512117" y="70613"/>
-                <a:pt x="6531808" y="66675"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6547683" y="63500"/>
-                <a:pt x="6563727" y="61077"/>
-                <a:pt x="6579433" y="57150"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6589173" y="54715"/>
-                <a:pt x="6598354" y="50383"/>
-                <a:pt x="6608008" y="47625"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6620595" y="44029"/>
-                <a:pt x="6633408" y="41275"/>
-                <a:pt x="6646108" y="38100"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6636583" y="31750"/>
-                <a:pt x="6627772" y="24170"/>
-                <a:pt x="6617533" y="19050"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6583206" y="1887"/>
-                <a:pt x="6521025" y="2732"/>
-                <a:pt x="6493708" y="0"/>
+                <a:pt x="4483100" y="1790700"/>
+                <a:pt x="4565732" y="1789201"/>
+                <a:pt x="4648200" y="1784350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4691885" y="1781780"/>
+                <a:pt x="4738141" y="1771978"/>
+                <a:pt x="4781550" y="1765300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4803740" y="1761886"/>
+                <a:pt x="4826136" y="1759791"/>
+                <a:pt x="4848225" y="1755775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4874537" y="1750991"/>
+                <a:pt x="4890417" y="1744886"/>
+                <a:pt x="4914900" y="1736725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4918075" y="1708150"/>
+                <a:pt x="4921066" y="1679554"/>
+                <a:pt x="4924425" y="1651000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4927416" y="1625578"/>
+                <a:pt x="4933950" y="1600398"/>
+                <a:pt x="4933950" y="1574800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4933950" y="1349353"/>
+                <a:pt x="4928678" y="1123932"/>
+                <a:pt x="4924425" y="898525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4918145" y="565711"/>
+                <a:pt x="4949736" y="669658"/>
+                <a:pt x="4905375" y="536575"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4908550" y="425450"/>
+                <a:pt x="4910071" y="314265"/>
+                <a:pt x="4914900" y="203200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4919074" y="107207"/>
+                <a:pt x="4915128" y="126317"/>
+                <a:pt x="4933950" y="69850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4968875" y="73025"/>
+                <a:pt x="5003927" y="75025"/>
+                <a:pt x="5038725" y="79375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5054789" y="81383"/>
+                <a:pt x="5070161" y="88900"/>
+                <a:pt x="5086350" y="88900"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5115101" y="88900"/>
+                <a:pt x="5143500" y="82550"/>
+                <a:pt x="5172075" y="79375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5162550" y="76200"/>
+                <a:pt x="5151340" y="76122"/>
+                <a:pt x="5143500" y="69850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5081952" y="20611"/>
+                <a:pt x="5167699" y="55691"/>
+                <a:pt x="5095875" y="31750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5048250" y="0"/>
+                <a:pt x="5060950" y="3175"/>
+                <a:pt x="5105400" y="69850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5130019" y="106779"/>
+                <a:pt x="5113590" y="94805"/>
+                <a:pt x="5153025" y="107950"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5134482" y="163580"/>
+                <a:pt x="5158009" y="112491"/>
+                <a:pt x="5114925" y="155575"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5106830" y="163670"/>
+                <a:pt x="5104814" y="176999"/>
+                <a:pt x="5095875" y="184150"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5046833" y="223384"/>
+                <a:pt x="5081500" y="165275"/>
+                <a:pt x="5057775" y="212725"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>617474</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>86913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Freeform 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3617849" y="219075"/>
+          <a:ext cx="839851" cy="2572938"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 839851 w 839851"/>
+            <a:gd name="connsiteY0" fmla="*/ 2571750 h 2572938"/>
+            <a:gd name="connsiteX1" fmla="*/ 725551 w 839851"/>
+            <a:gd name="connsiteY1" fmla="*/ 2524125 h 2572938"/>
+            <a:gd name="connsiteX2" fmla="*/ 668401 w 839851"/>
+            <a:gd name="connsiteY2" fmla="*/ 2505075 h 2572938"/>
+            <a:gd name="connsiteX3" fmla="*/ 639826 w 839851"/>
+            <a:gd name="connsiteY3" fmla="*/ 2486025 h 2572938"/>
+            <a:gd name="connsiteX4" fmla="*/ 611251 w 839851"/>
+            <a:gd name="connsiteY4" fmla="*/ 2419350 h 2572938"/>
+            <a:gd name="connsiteX5" fmla="*/ 592201 w 839851"/>
+            <a:gd name="connsiteY5" fmla="*/ 2362200 h 2572938"/>
+            <a:gd name="connsiteX6" fmla="*/ 582676 w 839851"/>
+            <a:gd name="connsiteY6" fmla="*/ 2305050 h 2572938"/>
+            <a:gd name="connsiteX7" fmla="*/ 573151 w 839851"/>
+            <a:gd name="connsiteY7" fmla="*/ 2276475 h 2572938"/>
+            <a:gd name="connsiteX8" fmla="*/ 582676 w 839851"/>
+            <a:gd name="connsiteY8" fmla="*/ 2152650 h 2572938"/>
+            <a:gd name="connsiteX9" fmla="*/ 611251 w 839851"/>
+            <a:gd name="connsiteY9" fmla="*/ 2057400 h 2572938"/>
+            <a:gd name="connsiteX10" fmla="*/ 630301 w 839851"/>
+            <a:gd name="connsiteY10" fmla="*/ 2019300 h 2572938"/>
+            <a:gd name="connsiteX11" fmla="*/ 649351 w 839851"/>
+            <a:gd name="connsiteY11" fmla="*/ 1962150 h 2572938"/>
+            <a:gd name="connsiteX12" fmla="*/ 658876 w 839851"/>
+            <a:gd name="connsiteY12" fmla="*/ 1933575 h 2572938"/>
+            <a:gd name="connsiteX13" fmla="*/ 668401 w 839851"/>
+            <a:gd name="connsiteY13" fmla="*/ 1905000 h 2572938"/>
+            <a:gd name="connsiteX14" fmla="*/ 658876 w 839851"/>
+            <a:gd name="connsiteY14" fmla="*/ 1695450 h 2572938"/>
+            <a:gd name="connsiteX15" fmla="*/ 649351 w 839851"/>
+            <a:gd name="connsiteY15" fmla="*/ 1533525 h 2572938"/>
+            <a:gd name="connsiteX16" fmla="*/ 639826 w 839851"/>
+            <a:gd name="connsiteY16" fmla="*/ 1171575 h 2572938"/>
+            <a:gd name="connsiteX17" fmla="*/ 620776 w 839851"/>
+            <a:gd name="connsiteY17" fmla="*/ 1000125 h 2572938"/>
+            <a:gd name="connsiteX18" fmla="*/ 611251 w 839851"/>
+            <a:gd name="connsiteY18" fmla="*/ 876300 h 2572938"/>
+            <a:gd name="connsiteX19" fmla="*/ 620776 w 839851"/>
+            <a:gd name="connsiteY19" fmla="*/ 657225 h 2572938"/>
+            <a:gd name="connsiteX20" fmla="*/ 630301 w 839851"/>
+            <a:gd name="connsiteY20" fmla="*/ 619125 h 2572938"/>
+            <a:gd name="connsiteX21" fmla="*/ 639826 w 839851"/>
+            <a:gd name="connsiteY21" fmla="*/ 552450 h 2572938"/>
+            <a:gd name="connsiteX22" fmla="*/ 649351 w 839851"/>
+            <a:gd name="connsiteY22" fmla="*/ 476250 h 2572938"/>
+            <a:gd name="connsiteX23" fmla="*/ 658876 w 839851"/>
+            <a:gd name="connsiteY23" fmla="*/ 390525 h 2572938"/>
+            <a:gd name="connsiteX24" fmla="*/ 668401 w 839851"/>
+            <a:gd name="connsiteY24" fmla="*/ 361950 h 2572938"/>
+            <a:gd name="connsiteX25" fmla="*/ 677926 w 839851"/>
+            <a:gd name="connsiteY25" fmla="*/ 314325 h 2572938"/>
+            <a:gd name="connsiteX26" fmla="*/ 668401 w 839851"/>
+            <a:gd name="connsiteY26" fmla="*/ 104775 h 2572938"/>
+            <a:gd name="connsiteX27" fmla="*/ 135001 w 839851"/>
+            <a:gd name="connsiteY27" fmla="*/ 95250 h 2572938"/>
+            <a:gd name="connsiteX28" fmla="*/ 68326 w 839851"/>
+            <a:gd name="connsiteY28" fmla="*/ 85725 h 2572938"/>
+            <a:gd name="connsiteX29" fmla="*/ 11176 w 839851"/>
+            <a:gd name="connsiteY29" fmla="*/ 95250 h 2572938"/>
+            <a:gd name="connsiteX30" fmla="*/ 49276 w 839851"/>
+            <a:gd name="connsiteY30" fmla="*/ 152400 h 2572938"/>
+            <a:gd name="connsiteX31" fmla="*/ 68326 w 839851"/>
+            <a:gd name="connsiteY31" fmla="*/ 180975 h 2572938"/>
+            <a:gd name="connsiteX32" fmla="*/ 39751 w 839851"/>
+            <a:gd name="connsiteY32" fmla="*/ 114300 h 2572938"/>
+            <a:gd name="connsiteX33" fmla="*/ 11176 w 839851"/>
+            <a:gd name="connsiteY33" fmla="*/ 95250 h 2572938"/>
+            <a:gd name="connsiteX34" fmla="*/ 1651 w 839851"/>
+            <a:gd name="connsiteY34" fmla="*/ 66675 h 2572938"/>
+            <a:gd name="connsiteX35" fmla="*/ 49276 w 839851"/>
+            <a:gd name="connsiteY35" fmla="*/ 28575 h 2572938"/>
+            <a:gd name="connsiteX36" fmla="*/ 96901 w 839851"/>
+            <a:gd name="connsiteY36" fmla="*/ 0 h 2572938"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="839851" h="2572938">
+              <a:moveTo>
+                <a:pt x="839851" y="2571750"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="760117" y="2558461"/>
+                <a:pt x="798770" y="2572938"/>
+                <a:pt x="725551" y="2524125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="708843" y="2512986"/>
+                <a:pt x="668401" y="2505075"/>
+                <a:pt x="668401" y="2505075"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="658876" y="2498725"/>
+                <a:pt x="647921" y="2494120"/>
+                <a:pt x="639826" y="2486025"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="616079" y="2462278"/>
+                <a:pt x="620620" y="2450579"/>
+                <a:pt x="611251" y="2419350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="605481" y="2400116"/>
+                <a:pt x="598551" y="2381250"/>
+                <a:pt x="592201" y="2362200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="586094" y="2343878"/>
+                <a:pt x="586866" y="2323903"/>
+                <a:pt x="582676" y="2305050"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="580498" y="2295249"/>
+                <a:pt x="576326" y="2286000"/>
+                <a:pt x="573151" y="2276475"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="576326" y="2235200"/>
+                <a:pt x="577839" y="2193763"/>
+                <a:pt x="582676" y="2152650"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="584779" y="2134770"/>
+                <a:pt x="606916" y="2066070"/>
+                <a:pt x="611251" y="2057400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="617601" y="2044700"/>
+                <a:pt x="625028" y="2032483"/>
+                <a:pt x="630301" y="2019300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="637759" y="2000656"/>
+                <a:pt x="643001" y="1981200"/>
+                <a:pt x="649351" y="1962150"/>
               </a:cubicBezTo>
               <a:lnTo>
-                <a:pt x="6579433" y="28575"/>
+                <a:pt x="658876" y="1933575"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="6608008" y="38100"/>
+                <a:pt x="668401" y="1905000"/>
               </a:lnTo>
               <a:cubicBezTo>
-                <a:pt x="6617533" y="44450"/>
-                <a:pt x="6629432" y="48211"/>
-                <a:pt x="6636583" y="57150"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6654131" y="79085"/>
-                <a:pt x="6643480" y="100835"/>
-                <a:pt x="6636583" y="123825"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6630813" y="143059"/>
-                <a:pt x="6623883" y="161925"/>
-                <a:pt x="6617533" y="180975"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="6614358" y="190500"/>
-                <a:pt x="6615108" y="202450"/>
-                <a:pt x="6608008" y="209550"/>
+                <a:pt x="665226" y="1835150"/>
+                <a:pt x="662457" y="1765280"/>
+                <a:pt x="658876" y="1695450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="656107" y="1641453"/>
+                <a:pt x="651316" y="1587558"/>
+                <a:pt x="649351" y="1533525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="644965" y="1412913"/>
+                <a:pt x="644850" y="1292162"/>
+                <a:pt x="639826" y="1171575"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="637161" y="1107609"/>
+                <a:pt x="626712" y="1062457"/>
+                <a:pt x="620776" y="1000125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="616851" y="958915"/>
+                <a:pt x="614426" y="917575"/>
+                <a:pt x="611251" y="876300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="614426" y="803275"/>
+                <a:pt x="615376" y="730119"/>
+                <a:pt x="620776" y="657225"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="621743" y="644170"/>
+                <a:pt x="627959" y="632005"/>
+                <a:pt x="630301" y="619125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="634317" y="597036"/>
+                <a:pt x="636859" y="574704"/>
+                <a:pt x="639826" y="552450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="643209" y="527077"/>
+                <a:pt x="646360" y="501672"/>
+                <a:pt x="649351" y="476250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="652710" y="447696"/>
+                <a:pt x="654149" y="418885"/>
+                <a:pt x="658876" y="390525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="660527" y="380621"/>
+                <a:pt x="665966" y="371690"/>
+                <a:pt x="668401" y="361950"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="672328" y="346244"/>
+                <a:pt x="674751" y="330200"/>
+                <a:pt x="677926" y="314325"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="674751" y="244475"/>
+                <a:pt x="733243" y="130939"/>
+                <a:pt x="668401" y="104775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="503492" y="38233"/>
+                <a:pt x="312740" y="100893"/>
+                <a:pt x="135001" y="95250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="112562" y="94538"/>
+                <a:pt x="90551" y="88900"/>
+                <a:pt x="68326" y="85725"/>
               </a:cubicBezTo>
               <a:lnTo>
-                <a:pt x="6588958" y="228600"/>
+                <a:pt x="11176" y="95250"/>
               </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4886" y="117264"/>
+                <a:pt x="36576" y="133350"/>
+                <a:pt x="49276" y="152400"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="68326" y="180975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="61039" y="151828"/>
+                <a:pt x="61677" y="136226"/>
+                <a:pt x="39751" y="114300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31656" y="106205"/>
+                <a:pt x="20701" y="101600"/>
+                <a:pt x="11176" y="95250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8001" y="85725"/>
+                <a:pt x="0" y="76579"/>
+                <a:pt x="1651" y="66675"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6720" y="36263"/>
+                <a:pt x="26988" y="36004"/>
+                <a:pt x="49276" y="28575"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="83758" y="5587"/>
+                <a:pt x="67612" y="14645"/>
+                <a:pt x="96901" y="0"/>
+              </a:cubicBezTo>
             </a:path>
           </a:pathLst>
         </a:custGeom>
@@ -4890,7 +4918,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4899,7 +4927,7 @@
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
   </cols>
@@ -5072,9 +5100,6 @@
       <c r="I14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
@@ -5088,12 +5113,9 @@
         <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5104,16 +5126,17 @@
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -5122,12 +5145,11 @@
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="K17" s="3" t="s">
-        <v>39</v>
+      <c r="I17" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -5136,12 +5158,11 @@
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="K18" s="3" t="s">
-        <v>40</v>
+      <c r="I18" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:9">
       <c r="A19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>27</v>
@@ -5149,39 +5170,34 @@
       <c r="E19" s="3"/>
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:9">
       <c r="A20" s="3"/>
       <c r="C20" s="3"/>
       <c r="E20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:9">
       <c r="A21" s="3"/>
       <c r="C21" s="3"/>
       <c r="E21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:9">
       <c r="A22" s="3"/>
       <c r="C22" s="3"/>
       <c r="E22" s="3"/>
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="A23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="K23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
